--- a/biology/Botanique/Palicourea_apoda/Palicourea_apoda.xlsx
+++ b/biology/Botanique/Palicourea_apoda/Palicourea_apoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea apoda est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
-On l'appelle au Suriname Akra (Sranan tongo)[5] ou Kamba oso[6].
+On l'appelle au Suriname Akra (Sranan tongo) ou Kamba oso.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea apoda est une arbuste ou sous-arbrisseau atteignant jusqu'à 3 m de haut, pubérulent à glabre.
 Les feuilles mesurent 8-20 × 2-9 cm.
@@ -523,10 +537,10 @@
 Le limbe du calice est lobé, long de 1-1,5 mm.
 La corolle est blanche, avec un tube long de 12-15 mm, et des lobes de 1,5-2 mm.
 Le fruit est bleu, ellipsoïde, mesurant environ 6 × 4 mm. 
-Les 2 pyrenes ont une fissure ventrale centrale longitudinale, et sont dorsalement anguleux à strié[7]
+Les 2 pyrenes ont une fissure ventrale centrale longitudinale, et sont dorsalement anguleux à strié
 En 1953, Lemée en propose la description suivante de Palicourea apoda :
 « [Cephaelis] violacea Sw. (Tapogomea v. Aubl.). Sous-arbrisseau glabre ; feuilles de 0,07-0,15 sur 0,02-0,08, elliptiques-oblongues acuminées caudées, à base aiguë, subcoriaces glabres, avec 11-14 paires de nervures saillantes en dessous subparallèles , alternant avec 2-3 veines plus fines ; unies entre elles près des bords, stipules unies sur 3-4 mm., surmontées de glandes subulées ; capitules subsessiles déprimés-globuleux à diamètre de 0,02, avec involucre de 3 paires de bractées coriaces orbiculaires violacées ; fleurs avec bractées étroites aiguës, calice glabre, à segments très courts, corolle blanche ou violacée, à lobes poilus au sommet en dehors ; drupe de 6 mm. sur 5, à noyaux lisses. - Maroni : camp Godebert, Charvein (R. Benoist) ; herbier Lemée : chantier de l'Orapu. »
-— Albert Lemée, 1953.[8]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea apoda est présent de la Colombie orientale au Brésil, en passant par le Venezuela, le Guyana, le Suriname, et la Guyane[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea apoda est présent de la Colombie orientale au Brésil, en passant par le Venezuela, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -585,10 +601,12 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea apoda est une arbuste à port très décombant[9], qui pousse dans les forêts ripicoles, de plaine et montagnardes inférieures, à 50-500 m d'altitude[7].
-Palicourea apoda est abondant dans la strate arbustive des forêts ouvertes sur djougoung-pété en Guyane[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea apoda est une arbuste à port très décombant, qui pousse dans les forêts ripicoles, de plaine et montagnardes inférieures, à 50-500 m d'altitude.
+Palicourea apoda est abondant dans la strate arbustive des forêts ouvertes sur djougoung-pété en Guyane.
 </t>
         </is>
       </c>
@@ -617,10 +635,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea apoda est considérée comme une plante magique utilisée dans le rituel Winti au Suriname[11].
-L'extrait de Psychotria apoda présente des propriétés antipaludéennes[12],[13],[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea apoda est considérée comme une plante magique utilisée dans le rituel Winti au Suriname.
+L'extrait de Psychotria apoda présente des propriétés antipaludéennes.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea apoda sous le nom de Tapogomea violacea et en a proposé le protologue suivant[15] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea apoda sous le nom de Tapogomea violacea et en a proposé le protologue suivant : 
 « 1. TAPOGOMEA (violacea)  capitulo florum globoſo, ſquamoſo ; flore &amp; fructu violaceo. (Tabula 60.).
 Planta perennis, caulem pedalem, &amp; bipedalem ramoſum è radice emittens; rami nodoſi, oppoſiti. Folia oppoſita, nervoſa, nervis purpuraſcentibus, ovato-oblonga, acuta, glabra, integerrima, &amp; retroflexa, præcipuè ad baſim capituli floriferi, petiolata ; petiolis vaginæ breviſſimæ, amplexicauli adnexis.
 Florebat fructumque ferbat Auguſto.
